--- a/cartas_e_matriz_gabarito_game_of_selects_atualizado.xlsx
+++ b/cartas_e_matriz_gabarito_game_of_selects_atualizado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Arquivos SP Tech\Banco de Dados\game-of-selects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4B6B38-A2EA-4B07-BD92-1180C6C7A838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF3120-8DA5-4ED7-87B3-C35BAC22194F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9311D172-BD3F-4CF1-B3BB-28AA954A7D86}"/>
   </bookViews>
@@ -472,7 +472,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,18 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -585,13 +573,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2529,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC23502-0A7C-4E91-A919-706747D674F7}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,7 +2928,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>10</v>
       </c>
       <c r="B19" s="12">
@@ -2968,7 +2950,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -2990,7 +2972,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>10</v>
       </c>
       <c r="B21" s="12">
@@ -3012,7 +2994,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>10</v>
       </c>
       <c r="B22" s="12">
@@ -3034,7 +3016,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>10</v>
       </c>
       <c r="B23" s="12">
@@ -3056,7 +3038,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>10</v>
       </c>
       <c r="B24" s="12">
@@ -3078,7 +3060,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>10</v>
       </c>
       <c r="B25" s="12">
@@ -3100,7 +3082,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>10</v>
       </c>
       <c r="B26" s="12">
@@ -3122,7 +3104,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>10</v>
       </c>
       <c r="B27" s="12">
@@ -3144,7 +3126,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>10</v>
       </c>
       <c r="B28" s="12">
@@ -3166,7 +3148,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>10</v>
       </c>
       <c r="B29" s="12">
@@ -3188,7 +3170,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>10</v>
       </c>
       <c r="B30" s="12">
@@ -3210,7 +3192,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>10</v>
       </c>
       <c r="B31" s="12">
@@ -3232,7 +3214,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="4" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>10</v>
       </c>
       <c r="B32" s="12">

--- a/cartas_e_matriz_gabarito_game_of_selects_atualizado.xlsx
+++ b/cartas_e_matriz_gabarito_game_of_selects_atualizado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Documents\Arquivos SP Tech\Banco de Dados\game-of-selects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF3120-8DA5-4ED7-87B3-C35BAC22194F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2EA30-67F1-43C4-BCE3-28440DAF6780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9311D172-BD3F-4CF1-B3BB-28AA954A7D86}"/>
   </bookViews>
@@ -2511,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC23502-0A7C-4E91-A919-706747D674F7}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="19">
         <v>10</v>
       </c>
       <c r="B3" s="12">
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="19">
         <v>10</v>
       </c>
       <c r="B4" s="12">
@@ -2620,7 +2620,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="19">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="19">
         <v>10</v>
       </c>
       <c r="B6" s="12">
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="19">
         <v>10</v>
       </c>
       <c r="B7" s="12">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="19">
         <v>10</v>
       </c>
       <c r="B8" s="12">
@@ -2708,7 +2708,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="19">
         <v>10</v>
       </c>
       <c r="B9" s="12">
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="19">
         <v>10</v>
       </c>
       <c r="B10" s="12">
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="12">
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="B12" s="12">
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
       <c r="B13" s="12">
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="19">
         <v>10</v>
       </c>
       <c r="B15" s="12">
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="19">
         <v>10</v>
       </c>
       <c r="B16" s="12">
@@ -2884,7 +2884,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="19">
         <v>10</v>
       </c>
       <c r="B17" s="12">
@@ -2906,7 +2906,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="12">
